--- a/Base/Teams/Falcons/Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="C2">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="D2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="C2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Falcons/Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="C3">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="C3">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="D3">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Falcons/Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="C3">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="C3">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D3">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Falcons/Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="C2">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="C2">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Falcons/Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C3">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="C3">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>59</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Falcons/Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="C2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>6</v>
